--- a/ECE 2020/dataMapasECEDiscapacidad.xlsx
+++ b/ECE 2020/dataMapasECEDiscapacidad.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chiara Zamora\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F0B2D9E-0400-4D00-8BF8-C81B293D5CDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dataMapasECE" sheetId="1" r:id="rId1"/>
@@ -19,11 +13,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dataMapasECE!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -198,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -699,11 +688,10 @@
     <cellStyle name="60% - Énfasis4" xfId="32" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="36" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="40" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Énfasis1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis2" xfId="21" builtinId="33" customBuiltin="1"/>
@@ -715,13 +703,14 @@
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="41" xr:uid="{4A78E733-71AA-439B-8038-7ECAA81465D9}"/>
-    <cellStyle name="Normal 4" xfId="43" xr:uid="{C2B38E71-6F55-4BF9-BED6-BF76A67F65D4}"/>
-    <cellStyle name="Notas 2" xfId="42" xr:uid="{54526A6D-FDFE-43C0-8EEB-FDF84FD60D4C}"/>
+    <cellStyle name="Normal 2" xfId="41"/>
+    <cellStyle name="Normal 4" xfId="43"/>
+    <cellStyle name="Notas 2" xfId="42"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="15" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
@@ -994,27 +983,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1025,25 +1014,29 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1054,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1065,16 +1058,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1085,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1096,25 +1091,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1125,25 +1124,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1154,16 +1157,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1174,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1185,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1196,16 +1201,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1216,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1227,16 +1234,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1247,25 +1256,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1276,17 +1289,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
       <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{C7D0CB62-11E7-4009-B059-35DE2748FA06}">
+  <autoFilter ref="A1:C1">
     <sortState ref="A2:C27">
       <sortCondition ref="B1"/>
     </sortState>

--- a/ECE 2020/dataMapasECEDiscapacidad.xlsx
+++ b/ECE 2020/dataMapasECEDiscapacidad.xlsx
@@ -10,9 +10,9 @@
     <sheet name="dataMapasECE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dataMapasECE!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dataMapasECE!$A$1:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -188,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -202,6 +202,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri Light"/>
@@ -248,7 +249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,6 +321,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -619,7 +626,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -640,36 +647,40 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="48">
     <cellStyle name="20% - Énfasis1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="22" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="26" builtinId="38" customBuiltin="1"/>
@@ -703,9 +714,13 @@
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="41"/>
-    <cellStyle name="Normal 4" xfId="43"/>
-    <cellStyle name="Notas 2" xfId="42"/>
+    <cellStyle name="Normal 2" xfId="44"/>
+    <cellStyle name="Normal 3" xfId="46"/>
+    <cellStyle name="Normal 4" xfId="47"/>
+    <cellStyle name="Normal 5" xfId="41"/>
+    <cellStyle name="Notas 2" xfId="43"/>
+    <cellStyle name="Porcentaje 2" xfId="45"/>
+    <cellStyle name="Porcentaje 3" xfId="42"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="15" builtinId="53" customBuiltin="1"/>
@@ -720,9 +735,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -983,7 +995,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -994,7 +1006,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C27" sqref="C2:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1021,9 +1033,7 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1032,9 +1042,7 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1044,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1055,7 +1063,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1065,9 +1073,7 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1098,9 +1104,7 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1109,9 +1113,7 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1131,9 +1133,7 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1142,9 +1142,7 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1154,7 +1152,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1164,9 +1162,7 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1176,7 +1172,7 @@
         <v>51</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1198,7 +1194,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1208,9 +1204,7 @@
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1231,7 +1225,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1241,9 +1235,7 @@
       <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1263,9 +1255,7 @@
       <c r="B24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1274,9 +1264,7 @@
       <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1296,16 +1284,17 @@
       <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
+      <c r="C27" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1">
+  <autoFilter ref="A1:C27">
     <sortState ref="A2:C27">
-      <sortCondition ref="B1"/>
+      <sortCondition ref="B1:B27"/>
     </sortState>
   </autoFilter>
+  <sortState ref="A2:C27">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ECE 2020/dataMapasECEDiscapacidad.xlsx
+++ b/ECE 2020/dataMapasECEDiscapacidad.xlsx
@@ -995,7 +995,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C2:C27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1033,7 +1033,9 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1042,7 +1044,9 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1073,7 +1077,9 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1104,7 +1110,9 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1113,7 +1121,9 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1133,7 +1143,9 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1142,7 +1154,9 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1162,7 +1176,9 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1204,7 +1220,9 @@
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1235,7 +1253,9 @@
       <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1255,7 +1275,9 @@
       <c r="B24" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1264,7 +1286,9 @@
       <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1284,7 +1308,9 @@
       <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C27">

--- a/ECE 2020/dataMapasECEDiscapacidad.xlsx
+++ b/ECE 2020/dataMapasECEDiscapacidad.xlsx
@@ -678,7 +678,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Énfasis1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -995,7 +995,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C2" sqref="C2:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
